--- a/mathTransformed/HMPSTT_(2017-07-10)_44_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-07-10)_44_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>S M V V S High SchoolAfzalpur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Shri Gurudev Janate TrustHigh School AdnoorAfzalpur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S S High SchoolHire – JewargiAfzalpur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Nutan High SchoolMallabadAfzalpur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Shri Mahanteswar High School MahantapurChinamaglraAfzalpura</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S TellurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. High School Gobbur (B) Afzalpur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S Deval GanagapurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. Urdu High School SulepethChincholi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt High SchoolDegalmadiChincholi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -753,6 +808,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S KalagiChittapur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -780,6 +840,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Bhimalli</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -807,6 +872,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School Ferozabad</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Kalaburagi South</t>
         </is>
       </c>
@@ -834,6 +904,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S JawalgeraSindhanur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -861,6 +936,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt High SchoolSindhanur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -888,6 +968,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya Lingasugur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -915,6 +1000,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S YlagattaLingasugur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -942,6 +1032,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G P U C H S GuruguntaLingasugur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -969,6 +1064,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S TalekhanLingasugur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -996,6 +1096,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S MatturLingasugur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1023,6 +1128,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G B H S SirwarManvi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1050,6 +1160,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S (Girls) SirwarManvi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1077,6 +1192,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S AmeenagadManvi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1104,6 +1224,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S ChinchodiDeodurga</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1131,6 +1256,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S BunkaladoddiDeodurga</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1158,6 +1288,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S MudboolShahapur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1185,6 +1320,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S AnabiShahapur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1212,6 +1352,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S KhanapurShahapur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1239,6 +1384,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. Girls Junior CollegeShahapur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1266,6 +1416,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Vidyaranaya SchoolShahapur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1293,6 +1448,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. H S DarshanapurShahapur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1320,6 +1480,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Govt High School ShirwalShahapur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1347,6 +1512,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. Girls P U CollegeShahapur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1371,7 +1541,8 @@
           <t>RAMACHANDRA V KATTI</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>RAMACHANDRA V KATT</t>
         </is>
@@ -1389,6 +1560,11 @@
         </is>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>G H S HegganadoddiShorapur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Yadgiri</t>
         </is>
@@ -1417,6 +1593,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S BenakanahalleShorapur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1444,6 +1625,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt. Junior BoysCollege Gurumatkal</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1469,7 +1655,8 @@
           <t>RAHUL B T</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>G H S Wankasambram Yadgiri</t>
         </is>
@@ -1498,6 +1685,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Govt. High School Honagera</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1525,6 +1717,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G G H S Gurmatkal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1552,6 +1749,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G G H S Gurmatkal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1579,6 +1781,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt P U CollegeGurumatkal</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1606,6 +1813,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Govt. Girls High School HunasagiShorapur</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1633,6 +1845,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S Hattikani</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1659,6 +1876,11 @@
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>M R M H School</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>Yadgiri</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-07-10)_44_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-07-10)_44_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,6 @@
           <t>RAMACHANDRA V KATTI</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>RAMACHANDRA V KATT</t>
@@ -1566,7 +1565,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1597,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1629,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1654,6 @@
           <t>RAHUL B T</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>G H S Wankasambram Yadgiri</t>
@@ -1690,7 +1688,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1720,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1752,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1784,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1816,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1848,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1880,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2017-07-10)_44_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-07-10)_44_4.xlsx
@@ -877,7 +877,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>G H S Wankasambram Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
